--- a/psidis/expdata/20025.xlsx
+++ b/psidis/expdata/20025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobethier/Documents/fitpack/database/psidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/JAM Database/psidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DEF51F-E0B4-3243-AA3F-354C44DBDE18}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD5E69D9-7B6D-1147-8B15-ED3805691FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="500" windowWidth="25600" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>deuteron</t>
-  </si>
-  <si>
     <t>K+</t>
   </si>
   <si>
@@ -70,13 +67,16 @@
   </si>
   <si>
     <t>COMPASS</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +107,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,12 +146,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -482,7 +504,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,38 +513,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -545,10 +567,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I2" s="2">
         <v>0.2</v>
@@ -557,7 +579,7 @@
         <v>0.85</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -580,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I3" s="2">
         <v>0.2</v>
@@ -592,7 +614,7 @@
         <v>0.85</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -615,10 +637,10 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I4" s="2">
         <v>0.2</v>
@@ -627,7 +649,7 @@
         <v>0.85</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -650,10 +672,10 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I5" s="2">
         <v>0.2</v>
@@ -662,7 +684,7 @@
         <v>0.85</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -685,10 +707,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I6" s="2">
         <v>0.2</v>
@@ -697,7 +719,7 @@
         <v>0.85</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -720,10 +742,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I7" s="2">
         <v>0.2</v>
@@ -732,7 +754,7 @@
         <v>0.85</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -755,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I8" s="2">
         <v>0.2</v>
@@ -767,7 +789,7 @@
         <v>0.85</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -790,10 +812,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I9" s="2">
         <v>0.2</v>
@@ -802,7 +824,7 @@
         <v>0.85</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -825,10 +847,10 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I10" s="2">
         <v>0.2</v>
@@ -837,7 +859,7 @@
         <v>0.85</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -860,10 +882,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I11" s="2">
         <v>0.2</v>
@@ -872,7 +894,7 @@
         <v>0.85</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
